--- a/backend/uploads/input_skus.xlsx
+++ b/backend/uploads/input_skus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Codes\Ollama LLM updated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Codes\Ollama LLM Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B66714-87FA-40AA-B5D6-F61232390D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43B5015-B4D3-4A0C-B0F3-193770B225DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{641E2AAF-010F-4744-A57A-BB7E2A9871DA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="98">
   <si>
     <t>SKU_Description</t>
   </si>
@@ -328,156 +328,6 @@
   </si>
   <si>
     <t>Machine Learning Training Compute, A100 GPU Instance, Per Hour</t>
-  </si>
-  <si>
-    <t>SW-ADOBECC2025-ENT-1YR-01U</t>
-  </si>
-  <si>
-    <t>SW-MSOFF365-BUS-PREM-2025-05U</t>
-  </si>
-  <si>
-    <t>SW-WINSRV-STD24-CORE-10U</t>
-  </si>
-  <si>
-    <t>SW-QBPRO-PLUS-2025-SMB-3YR</t>
-  </si>
-  <si>
-    <t>SW-SF-CRM-ENT-24MO-20U</t>
-  </si>
-  <si>
-    <t>SW-ORCL-DB-SE2-25U-1YR</t>
-  </si>
-  <si>
-    <t>SW-GWORK-ENT-2024-EE-25U</t>
-  </si>
-  <si>
-    <t>SW-JIRA-SCLD-PRJ-24-TEAM</t>
-  </si>
-  <si>
-    <t>SW-ZOOM-PRO-MTG-ANN-30U</t>
-  </si>
-  <si>
-    <t>SW-SPLUNK-ENT-LIC-LOG-5TB</t>
-  </si>
-  <si>
-    <t>SW-GITHUB-TEAM-DEV-1YR-10U</t>
-  </si>
-  <si>
-    <t>SW-DB-BIZ-ADV-3YR-50GB</t>
-  </si>
-  <si>
-    <t>SW-BOX-CLD-BASE-2025-20U</t>
-  </si>
-  <si>
-    <t>SW-SNOW-ITSM-CORE-12MO</t>
-  </si>
-  <si>
-    <t>SW-SAPHANA-CLD-2025-1DB</t>
-  </si>
-  <si>
-    <t>SW-VMWARE-ESXI-8CPU-1YR</t>
-  </si>
-  <si>
-    <t>SW-TRELLO-TRANS-2025-TEAM</t>
-  </si>
-  <si>
-    <t>SW-ASANA-PREM-5YR-15U</t>
-  </si>
-  <si>
-    <t>SW-SNOWFLAKE-STD-5TB-1YR</t>
-  </si>
-  <si>
-    <t>SW-MATLAB-ACAD-24-PERM</t>
-  </si>
-  <si>
-    <t>SW-LOGMEIN-PRO-02U-1YR</t>
-  </si>
-  <si>
-    <t>SW-ADOBE-PS2024-1U</t>
-  </si>
-  <si>
-    <t>SW-MCAFEE-TOTAL-VPN-3YR-5U</t>
-  </si>
-  <si>
-    <t>SW-KASPERSKY-SEC-ENT-10U</t>
-  </si>
-  <si>
-    <t>SW-AVAST-BUS-EDU-3YR-50U</t>
-  </si>
-  <si>
-    <t>SW-NORDVPN-TEAM-BUS-3YR</t>
-  </si>
-  <si>
-    <t>SW-AWS-EC2-LNX-8INST-12M</t>
-  </si>
-  <si>
-    <t>SW-DROPBOX-ENT-100U-2024</t>
-  </si>
-  <si>
-    <t>SW-SLACK-PRO-COLL-25U-1YR</t>
-  </si>
-  <si>
-    <t>SW-BASECAMP-PRO-MGR-10U</t>
-  </si>
-  <si>
-    <t>SW-CITRIX-VDI-STD-25U-1YR</t>
-  </si>
-  <si>
-    <t>SW-LUCID-TM-ASM-12MO-20U</t>
-  </si>
-  <si>
-    <t>SW-TABLEAU-CRM-PLUS-2025</t>
-  </si>
-  <si>
-    <t>SW-SONICWALL-NTWRK-3YR</t>
-  </si>
-  <si>
-    <t>SW-ADOBE-LRCL-2025-2U</t>
-  </si>
-  <si>
-    <t>SW-JMP-PRO-STATS-PERM</t>
-  </si>
-  <si>
-    <t>SW-CA-RALLY-ALM-AGILE-20U</t>
-  </si>
-  <si>
-    <t>SW-HUBSPOT-PRO-MKTG-12M</t>
-  </si>
-  <si>
-    <t>SW-DOCUSIGN-BIZ-SIGN-1U1YR</t>
-  </si>
-  <si>
-    <t>SW-QBO-ADV-BIZ-50U-2024</t>
-  </si>
-  <si>
-    <t>SW-REDHAT-LX-ENT-16CPU</t>
-  </si>
-  <si>
-    <t>SW-AUTOCAD2025-ENG-PE-2U</t>
-  </si>
-  <si>
-    <t>SW-PRTG-NW-MON-500SEN-1YR</t>
-  </si>
-  <si>
-    <t>SW-FORTINET-FW-100V-3YR</t>
-  </si>
-  <si>
-    <t>SW-PROOFPT-EMAIL-ESS-24MO</t>
-  </si>
-  <si>
-    <t>SW-ANAPLAN-PLN-MOD-3YR</t>
-  </si>
-  <si>
-    <t>SW-MS-VISIO-PLAN2-2025</t>
-  </si>
-  <si>
-    <t>SW-CLICKUP-BUS-TASK-50U</t>
-  </si>
-  <si>
-    <t>SW-TWILIO-API-COMM-1YR-10K</t>
-  </si>
-  <si>
-    <t>SW-ZENDESK-SUIT-OMNI-10U</t>
   </si>
 </sst>
 </file>
@@ -857,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{799568AF-8521-4BFA-B246-C463F7675F1A}">
-  <dimension ref="A1:B156"/>
+  <dimension ref="A1:B106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1714,406 +1564,6 @@
       </c>
       <c r="B106" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112">
-        <v>111</v>
-      </c>
-      <c r="B112" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113">
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>115</v>
-      </c>
-      <c r="B116" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>116</v>
-      </c>
-      <c r="B117" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <v>117</v>
-      </c>
-      <c r="B118" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <v>118</v>
-      </c>
-      <c r="B119" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <v>120</v>
-      </c>
-      <c r="B121" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>121</v>
-      </c>
-      <c r="B122" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>122</v>
-      </c>
-      <c r="B123" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>123</v>
-      </c>
-      <c r="B124" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>124</v>
-      </c>
-      <c r="B125" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>125</v>
-      </c>
-      <c r="B126" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>126</v>
-      </c>
-      <c r="B127" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128">
-        <v>127</v>
-      </c>
-      <c r="B128" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129">
-        <v>128</v>
-      </c>
-      <c r="B129" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130">
-        <v>129</v>
-      </c>
-      <c r="B130" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131">
-        <v>130</v>
-      </c>
-      <c r="B131" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132">
-        <v>131</v>
-      </c>
-      <c r="B132" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133">
-        <v>132</v>
-      </c>
-      <c r="B133" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134">
-        <v>133</v>
-      </c>
-      <c r="B134" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135">
-        <v>134</v>
-      </c>
-      <c r="B135" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136">
-        <v>135</v>
-      </c>
-      <c r="B136" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137">
-        <v>136</v>
-      </c>
-      <c r="B137" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138">
-        <v>137</v>
-      </c>
-      <c r="B138" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139">
-        <v>138</v>
-      </c>
-      <c r="B139" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <v>139</v>
-      </c>
-      <c r="B140" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141">
-        <v>140</v>
-      </c>
-      <c r="B141" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142">
-        <v>141</v>
-      </c>
-      <c r="B142" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143">
-        <v>142</v>
-      </c>
-      <c r="B143" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144">
-        <v>143</v>
-      </c>
-      <c r="B144" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145">
-        <v>144</v>
-      </c>
-      <c r="B145" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146">
-        <v>145</v>
-      </c>
-      <c r="B146" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147">
-        <v>146</v>
-      </c>
-      <c r="B147" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148">
-        <v>147</v>
-      </c>
-      <c r="B148" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149">
-        <v>148</v>
-      </c>
-      <c r="B149" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150">
-        <v>149</v>
-      </c>
-      <c r="B150" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151">
-        <v>150</v>
-      </c>
-      <c r="B151" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152">
-        <v>151</v>
-      </c>
-      <c r="B152" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153">
-        <v>152</v>
-      </c>
-      <c r="B153" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154">
-        <v>153</v>
-      </c>
-      <c r="B154" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155">
-        <v>154</v>
-      </c>
-      <c r="B155" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156">
-        <v>155</v>
-      </c>
-      <c r="B156" t="s">
-        <v>147</v>
       </c>
     </row>
   </sheetData>
